--- a/public/assets/downloads/CotizacionJESUS BEGAZO BARZOLA.xlsx
+++ b/public/assets/downloads/CotizacionJESUS BEGAZO BARZOLA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>COTIZACION Nº20240000001</t>
   </si>
@@ -50,7 +50,7 @@
     <t>PESO:</t>
   </si>
   <si>
-    <t>285 Kg</t>
+    <t>150 Kg</t>
   </si>
   <si>
     <t>CORREO:</t>
@@ -177,13 +177,7 @@
     <t>VALOR PERU SOLES</t>
   </si>
   <si>
-    <t>PORTAPILAS DE 2 COMPARTIMIENTOS</t>
-  </si>
-  <si>
-    <t>PORTAPILAS DE 5 COMPARTIMIENTOS</t>
-  </si>
-  <si>
-    <t>PISTOLA DE SOLDAR</t>
+    <t>PLACA DE PRUEBRAS DE 830 AGUJEROS</t>
   </si>
   <si>
     <t>RESUMEN DE PAGOS DE SERVICIO DE IMPORTACIÓN</t>
@@ -686,12 +680,12 @@
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="171" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.0\ &quot;kg&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000\ &quot;m3&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0_-"/>
-    <numFmt numFmtId="175" formatCode="0.00&quot; Kg&quot;"/>
-    <numFmt numFmtId="176" formatCode="&quot;S/.&quot; #,##0.00_-"/>
-    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="0.0\ &quot;kg&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000\ &quot;m3&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0_-"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot; Kg&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;S/.&quot; #,##0.00_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -943,7 +937,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1256,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -1359,6 +1353,14 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="170" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="2" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="172" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="12" numFmtId="166" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,6 +1390,9 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="170" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="16" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1409,12 +1414,12 @@
     <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="172" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="173" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="174" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1474,6 +1479,9 @@
     </xf>
     <xf xfId="0" fontId="19" numFmtId="171" fillId="8" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="171" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="20" numFmtId="0" fillId="9" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1512,45 +1520,36 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="174" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="175" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="24" numFmtId="10" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="12" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="174" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="175" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="10" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="175" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="176" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="174" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="176" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="5" numFmtId="175" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="177" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="4" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="174" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="175" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="176" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="177" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="174" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="175" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="174" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="9" numFmtId="174" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="174" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="25" numFmtId="176" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="177" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="9" numFmtId="2" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="25" numFmtId="175" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2078,7 +2077,7 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="false" showRowColHeaders="1" topLeftCell="A25">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2132,10 +2131,10 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2151,10 +2150,10 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2206,11 +2205,11 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2230,7 +2229,7 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="120" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2244,12 +2243,12 @@
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="65" t="str">
+      <c r="I8" s="70" t="str">
         <f>+'2'!D5</f>
-        <v>PORTAPILAS DE 5 COMPARTIMIENTOS</v>
-      </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+        <v>Total</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2266,23 +2265,23 @@
       <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="71">
         <f>+TODAY()</f>
-        <v>45917</v>
-      </c>
-      <c r="F9" s="67"/>
+        <v>45940</v>
+      </c>
+      <c r="F9" s="72"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="73">
         <f>+'2'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="68"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2348,14 +2347,14 @@
       <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="115">
-        <f>'2'!E7</f>
+      <c r="J11" s="121">
+        <f>'2'!C7</f>
         <v>0</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="20"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2383,13 +2382,13 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
@@ -2408,11 +2407,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2421,11 +2420,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="25">
         <f>'2'!D18</f>
-        <v>489.37351308485</v>
+        <v/>
       </c>
       <c r="K14" s="26">
-        <f>'2'!E11</f>
-        <v>555</v>
+        <f>'2'!C11</f>
+        <v>900</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2435,11 +2434,11 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2451,8 +2450,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="K15" s="28">
-        <f>'2'!E14 + '2'!E17</f>
-        <v>124.00574940523</v>
+        <f>'2'!C14 + '2'!C17</f>
+        <v>218</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2526,13 +2525,13 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -2572,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="26">
-        <f>'2'!E28</f>
+        <f>'2'!C28</f>
         <v>0</v>
       </c>
       <c r="L20" s="1"/>
@@ -2603,8 +2602,8 @@
         <v>0</v>
       </c>
       <c r="K21" s="26">
-        <f>'2'!E29</f>
-        <v>108.64091990484</v>
+        <f>'2'!C29</f>
+        <v>178.88</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2635,8 +2634,8 @@
         <v>0</v>
       </c>
       <c r="K22" s="26">
-        <f>'2'!E30</f>
-        <v>13.580114988105</v>
+        <f>'2'!C30</f>
+        <v>22.36</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2658,11 +2657,11 @@
       <c r="H23" s="18"/>
       <c r="I23" s="32">
         <f>MAX('2'!C30:C30)</f>
-        <v>7.4874147501983</v>
+        <v>22.36</v>
       </c>
       <c r="J23" s="27">
         <f>'2'!D31</f>
-        <v>20.211126090404</v>
+        <v>46.1734</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>27</v>
@@ -2688,7 +2687,7 @@
       <c r="I24" s="26"/>
       <c r="J24" s="25">
         <f>SUM(J20:J23)</f>
-        <v>20.211126090404</v>
+        <v>46.1734</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>27</v>
@@ -2712,8 +2711,8 @@
       <c r="I25" s="34"/>
       <c r="J25" s="35"/>
       <c r="K25" s="26">
-        <f>'2'!E31</f>
-        <v>28.042937450436</v>
+        <f>'2'!C31</f>
+        <v>46.1734</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2764,7 +2763,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="25">
         <f>J24+J26</f>
-        <v>20.211126090404</v>
+        <v>46.1734</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>27</v>
@@ -2796,13 +2795,13 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="15.6">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
@@ -2812,7 +2811,7 @@
       </c>
       <c r="K29" s="38">
         <f>K14</f>
-        <v>555</v>
+        <v>900</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2835,11 +2834,11 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25">
         <f>J14</f>
-        <v>489.37351308485</v>
+        <v/>
       </c>
       <c r="K30" s="26">
-        <f>IF(J11&lt;1, 375, 375*J11)</f>
-        <v>375</v>
+        <f>IF(J11&lt;1, 280, 280*J11)</f>
+        <v>280</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2866,7 +2865,7 @@
       </c>
       <c r="K31" s="26">
         <f>K20+K21+K22+K25</f>
-        <v>150.26397234338</v>
+        <v>247.4134</v>
       </c>
       <c r="L31" s="30" t="s">
         <v>22</v>
@@ -2891,11 +2890,11 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27">
         <f>J27</f>
-        <v>20.211126090404</v>
+        <v>46.1734</v>
       </c>
       <c r="K32" s="28">
         <f>K29+K30+K31</f>
-        <v>1080.2639723434</v>
+        <v>1427.4134</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2924,13 +2923,13 @@
         <v>27</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="75" t="s">
+      <c r="M33" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="7"/>
@@ -2945,40 +2944,40 @@
       <c r="J34" s="35"/>
       <c r="K34" s="26"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="79"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="84"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="80" t="s">
+      <c r="M35" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="82" t="s">
+      <c r="N35" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="84" t="s">
+      <c r="O35" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="86" t="s">
+      <c r="P35" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="Q35" s="88" t="s">
+      <c r="Q35" s="93" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2994,116 +2993,86 @@
       <c r="E36" s="41"/>
       <c r="F36" s="41">
         <f>'2'!C10</f>
-        <v>6000</v>
-      </c>
-      <c r="G36" s="118">
+        <v>1500</v>
+      </c>
+      <c r="G36" s="124">
         <f>'2'!C8</f>
-        <v>0.051</v>
+        <v>0.6</v>
       </c>
       <c r="H36" s="42"/>
-      <c r="I36" s="118">
+      <c r="I36" s="124">
         <f>'2'!C46</f>
-        <v>0.080429571233148</v>
-      </c>
-      <c r="J36" s="116">
+        <v>0.95160893333333</v>
+      </c>
+      <c r="J36" s="122">
         <f>'2'!C44</f>
-        <v>482.57742739889</v>
-      </c>
-      <c r="K36" s="117">
+        <v>1427.4134</v>
+      </c>
+      <c r="K36" s="123">
         <f>'2'!C47</f>
-        <v>0.29758941356265</v>
+        <v>3.5209530533333</v>
       </c>
       <c r="L36" s="42"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="89"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="94"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="39"/>
-      <c r="B37" s="41">
-        <v>2</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>52</v>
-      </c>
+      <c r="B37" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="41"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
-      <c r="F37" s="59">
-        <f>'2'!D10</f>
-        <v>4000</v>
-      </c>
-      <c r="G37" s="118">
-        <f>'2'!D8</f>
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="119">
-        <f>'2'!D46</f>
-        <v>0.15770504163362</v>
-      </c>
-      <c r="J37" s="116">
-        <f>'2'!D44</f>
-        <v>630.8201665345</v>
-      </c>
-      <c r="K37" s="117">
-        <f>'2'!D47</f>
-        <v>0.58350865404441</v>
-      </c>
+      <c r="F37" s="65">
+        <f>SUM(F36:F36)</f>
+        <v>1500</v>
+      </c>
+      <c r="G37" s="63"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="125">
+        <f>SUM(J36:J36)</f>
+        <v>1427.4134</v>
+      </c>
+      <c r="K37" s="95"/>
       <c r="L37" s="42"/>
       <c r="M37" s="39">
         <v>1</v>
       </c>
-      <c r="N37" s="40">
+      <c r="N37" s="40" t="str">
         <f>+B37</f>
-        <v>2</v>
+        <v>TOTAL</v>
       </c>
       <c r="O37" s="43">
         <f>+F37</f>
-        <v>4000</v>
-      </c>
-      <c r="P37" s="44">
+        <v>1500</v>
+      </c>
+      <c r="P37" s="44" t="str">
         <f>+H37</f>
         <v/>
       </c>
-      <c r="Q37" s="45">
+      <c r="Q37" s="45" t="e">
         <f>P37*3.8</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="15.6">
       <c r="A38" s="46"/>
-      <c r="B38" s="41">
-        <v>3</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="41">
-        <f>'2'!E10</f>
-        <v>500</v>
-      </c>
-      <c r="G38" s="118">
-        <f>'2'!E8</f>
-        <v>1.11</v>
-      </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="120">
-        <f>'2'!E46</f>
-        <v>1.7505259621332</v>
-      </c>
-      <c r="J38" s="121">
-        <f>'2'!E44</f>
-        <v>875.26298106661</v>
-      </c>
-      <c r="K38" s="122">
-        <f>'2'!E47</f>
-        <v>6.4769460598929</v>
-      </c>
-      <c r="L38" s="41"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="34"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3112,38 +3081,30 @@
     </row>
     <row r="39" spans="1:17" customHeight="1" ht="15.6">
       <c r="A39" s="46"/>
-      <c r="B39" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60">
-        <f>SUM(F36:F38)</f>
-        <v>10500</v>
-      </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="121">
-        <f>SUM(J36:J38)</f>
-        <v>1988.660575</v>
-      </c>
-      <c r="K39" s="124"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="90" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="98"/>
+    </row>
+    <row r="40" spans="1:17" customHeight="1" ht="18">
+      <c r="A40" s="52" t="s">
         <v>54</v>
-      </c>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q39" s="92"/>
-    </row>
-    <row r="40" spans="1:17" customHeight="1" ht="18">
-      <c r="A40" s="48" t="s">
-        <v>56</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3156,15 +3117,15 @@
       <c r="J40" s="3"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="94"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="100"/>
     </row>
     <row r="41" spans="1:17" customHeight="1" ht="21">
-      <c r="A41" s="49" t="s">
-        <v>57</v>
+      <c r="A41" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3177,22 +3138,22 @@
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="N41" s="74"/>
-      <c r="O41" s="50" t="e">
+      <c r="M41" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="79"/>
+      <c r="O41" s="54" t="e">
         <f>+J31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P41" s="51" t="s">
-        <v>59</v>
+      <c r="P41" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" customHeight="1" ht="21">
-      <c r="A42" s="49" t="s">
-        <v>60</v>
+      <c r="A42" s="53" t="s">
+        <v>58</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3205,22 +3166,22 @@
       <c r="J42" s="3"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="73" t="s">
+      <c r="M42" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="79"/>
+      <c r="O42" s="54">
+        <f>+J32</f>
+        <v>46.1734</v>
+      </c>
+      <c r="P42" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" customHeight="1" ht="18">
+      <c r="A43" s="53" t="s">
         <v>61</v>
-      </c>
-      <c r="N42" s="74"/>
-      <c r="O42" s="50">
-        <f>+J32</f>
-        <v>20.211126090404</v>
-      </c>
-      <c r="P42" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" customHeight="1" ht="18">
-      <c r="A43" s="49" t="s">
-        <v>63</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3240,8 +3201,8 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="18">
-      <c r="A44" s="49" t="s">
-        <v>64</v>
+      <c r="A44" s="53" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3254,22 +3215,22 @@
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="N44" s="95"/>
-      <c r="O44" s="96" t="e">
+      <c r="M44" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="101"/>
+      <c r="O44" s="102" t="e">
         <f>+O41+O42+J14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P44" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q44" s="99"/>
+      <c r="P44" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q44" s="105"/>
     </row>
     <row r="45" spans="1:17" customHeight="1" ht="18">
-      <c r="A45" s="49" t="s">
-        <v>67</v>
+      <c r="A45" s="53" t="s">
+        <v>65</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3282,15 +3243,15 @@
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="99"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="105"/>
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="18">
-      <c r="A46" s="49" t="s">
-        <v>68</v>
+      <c r="A46" s="53" t="s">
+        <v>66</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3310,8 +3271,8 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="18">
-      <c r="A47" s="49" t="s">
-        <v>69</v>
+      <c r="A47" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3331,8 +3292,8 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" customHeight="1" ht="18">
-      <c r="A48" s="49" t="s">
-        <v>70</v>
+      <c r="A48" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3485,19 +3446,19 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" customHeight="1" ht="21">
-      <c r="A56" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
+      <c r="A56" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3563,8 +3524,8 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="52" t="s">
-        <v>72</v>
+      <c r="A60" s="56" t="s">
+        <v>70</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3584,8 +3545,8 @@
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="52" t="s">
-        <v>73</v>
+      <c r="A61" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3606,7 +3567,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -3626,8 +3587,8 @@
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="52" t="s">
-        <v>75</v>
+      <c r="A63" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3647,8 +3608,8 @@
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="52" t="s">
-        <v>76</v>
+      <c r="A64" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3669,7 +3630,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -3689,8 +3650,8 @@
       <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="52" t="s">
-        <v>78</v>
+      <c r="A66" s="56" t="s">
+        <v>76</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3710,8 +3671,8 @@
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="52" t="s">
-        <v>79</v>
+      <c r="A67" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3731,8 +3692,8 @@
       <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="52" t="s">
-        <v>80</v>
+      <c r="A68" s="56" t="s">
+        <v>78</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3752,8 +3713,8 @@
       <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="52" t="s">
-        <v>81</v>
+      <c r="A69" s="56" t="s">
+        <v>79</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3773,8 +3734,8 @@
       <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="52" t="s">
-        <v>82</v>
+      <c r="A70" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3794,8 +3755,8 @@
       <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="52" t="s">
-        <v>83</v>
+      <c r="A71" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3815,8 +3776,8 @@
       <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="52" t="s">
-        <v>84</v>
+      <c r="A72" s="56" t="s">
+        <v>82</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3836,8 +3797,8 @@
       <c r="Q72" s="1"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="52" t="s">
-        <v>85</v>
+      <c r="A73" s="56" t="s">
+        <v>83</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3914,8 +3875,8 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="52" t="s">
-        <v>86</v>
+      <c r="A77" s="56" t="s">
+        <v>84</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3935,8 +3896,8 @@
       <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="53" t="s">
-        <v>87</v>
+      <c r="A78" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3956,8 +3917,8 @@
       <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="52" t="s">
-        <v>88</v>
+      <c r="A79" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3977,8 +3938,8 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="54" t="s">
-        <v>89</v>
+      <c r="A80" s="58" t="s">
+        <v>87</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -3998,8 +3959,8 @@
       <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="52" t="s">
-        <v>90</v>
+      <c r="A81" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4020,7 +3981,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -4040,8 +4001,8 @@
       <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="52" t="s">
-        <v>92</v>
+      <c r="A83" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4061,8 +4022,8 @@
       <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="52" t="s">
-        <v>93</v>
+      <c r="A84" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4082,8 +4043,8 @@
       <c r="Q84" s="1"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="52" t="s">
-        <v>94</v>
+      <c r="A85" s="56" t="s">
+        <v>92</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4103,8 +4064,8 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="52" t="s">
-        <v>95</v>
+      <c r="A86" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4124,8 +4085,8 @@
       <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="52" t="s">
-        <v>96</v>
+      <c r="A87" s="56" t="s">
+        <v>94</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4202,8 +4163,8 @@
       <c r="Q90" s="1"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="52" t="s">
-        <v>97</v>
+      <c r="A91" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4223,8 +4184,8 @@
       <c r="Q91" s="1"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="52" t="s">
-        <v>98</v>
+      <c r="A92" s="56" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4244,8 +4205,8 @@
       <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="55" t="s">
-        <v>99</v>
+      <c r="A93" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4265,8 +4226,8 @@
       <c r="Q93" s="1"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="55" t="s">
-        <v>100</v>
+      <c r="A94" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4286,8 +4247,8 @@
       <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="55" t="s">
-        <v>101</v>
+      <c r="A95" s="59" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4384,7 +4345,7 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="1"/>
-      <c r="B100" s="55"/>
+      <c r="B100" s="59"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4403,7 +4364,7 @@
     </row>
     <row r="101" spans="1:17" customHeight="1" ht="15.6">
       <c r="A101" s="1"/>
-      <c r="B101" s="56"/>
+      <c r="B101" s="60"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4422,7 +4383,7 @@
     </row>
     <row r="102" spans="1:17" customHeight="1" ht="15.6">
       <c r="A102" s="1"/>
-      <c r="B102" s="56"/>
+      <c r="B102" s="60"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4555,7 +4516,7 @@
     </row>
     <row r="109" spans="1:17" customHeight="1" ht="15.6">
       <c r="A109" s="1"/>
-      <c r="B109" s="57"/>
+      <c r="B109" s="61"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4687,12 +4648,6 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="E11">
@@ -4723,613 +4678,403 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B40" sqref="B40:G47"/>
+      <selection activeCell="B40" sqref="B40:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="37.705" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="37.705" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="39.99" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
-      <c r="B3" s="102" t="s">
+    <row r="3" spans="1:8">
+      <c r="B3" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="107"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="105" t="s">
+      <c r="C6" s="107">
+        <v>0</v>
+      </c>
+      <c r="D6" s="116">
+        <v>150.0</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="101"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="101" t="s">
+      <c r="C7" s="107">
+        <v>0</v>
+      </c>
+      <c r="D7" s="117">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="107"/>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="101">
-        <v>0</v>
-      </c>
-      <c r="D6" s="101">
-        <v>0</v>
-      </c>
-      <c r="E6" s="101">
-        <v>0</v>
-      </c>
-      <c r="F6" s="110">
-        <v>285.0</v>
-      </c>
-      <c r="G6" s="101"/>
-      <c r="I6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="101" t="s">
+      <c r="C8" s="114">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="101">
-        <v>0</v>
-      </c>
-      <c r="D7" s="101">
-        <v>0</v>
-      </c>
-      <c r="E7" s="101">
-        <v>0</v>
-      </c>
-      <c r="F7" s="111">
-        <v>1.03</v>
-      </c>
-      <c r="G7" s="101"/>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>375.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="101" t="s">
+      <c r="C9" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="108">
-        <v>0.051</v>
-      </c>
-      <c r="D8" s="108">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="108">
-        <v>1.11</v>
-      </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="106" t="s">
+      <c r="C10" s="107">
+        <v>1500.0</v>
+      </c>
+      <c r="D10" s="107">
+        <f>SUM(C10:C10)</f>
+        <v>1500</v>
+      </c>
+      <c r="E10" s="107"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="101" t="s">
+      <c r="C11" s="114">
+        <f>C8*C10</f>
+        <v>900</v>
+      </c>
+      <c r="D11" s="107">
+        <f>SUM(C11:C11)</f>
+        <v>900</v>
+      </c>
+      <c r="E11" s="107"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="101">
-        <v>6000.0</v>
-      </c>
-      <c r="D10" s="101">
-        <v>4000.0</v>
-      </c>
-      <c r="E10" s="101">
-        <v>500.0</v>
-      </c>
-      <c r="F10" s="101">
-        <f>SUM(C10:E10)</f>
-        <v>10500</v>
-      </c>
-      <c r="G10" s="101"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="108">
-        <f>C8*C10</f>
-        <v>306</v>
-      </c>
-      <c r="D11" s="108">
-        <f>D8*D10</f>
-        <v>400</v>
-      </c>
-      <c r="E11" s="108">
-        <f>E8*E10</f>
-        <v>555</v>
-      </c>
-      <c r="F11" s="101">
-        <f>SUM(C11:E11)</f>
-        <v>1261</v>
-      </c>
-      <c r="G11" s="101"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="108">
+      <c r="C12" s="114">
         <f>C10*C9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="108">
-        <f>D10*D9</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="108">
-        <f>E10*E9</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="101" t="s">
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="115">
+        <f>C11/D11</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="114">
+        <f>D14*C13</f>
+        <v>168</v>
+      </c>
+      <c r="D14" s="107">
+        <f>IF(D7&lt;1, H7*0.6, H7*0.6*D7)</f>
+        <v>168</v>
+      </c>
+      <c r="E14" s="107"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="109">
-        <f>C11/F11</f>
-        <v>0.2426645519429</v>
-      </c>
-      <c r="D13" s="109">
-        <f>D11/F11</f>
-        <v>0.31720856463125</v>
-      </c>
-      <c r="E13" s="109">
-        <f>E11/F11</f>
-        <v>0.44012688342585</v>
-      </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="101" t="s">
+      <c r="C15" s="114">
+        <f>C11+C14</f>
+        <v>1068</v>
+      </c>
+      <c r="D15" s="118">
+        <f>SUM(C15:C15)</f>
+        <v>1068</v>
+      </c>
+      <c r="E15" s="107"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="108">
-        <f>F14*C13</f>
-        <v>56.237509912768</v>
-      </c>
-      <c r="D14" s="108">
-        <f>F14*D13</f>
-        <v>73.513084853291</v>
-      </c>
-      <c r="E14" s="108">
-        <f>F14*E13</f>
-        <v>101.99940523394</v>
-      </c>
-      <c r="F14" s="101">
-        <f>IF(F7&lt;1, J7*0.6, J7*0.6*F7)</f>
-        <v>231.75</v>
-      </c>
-      <c r="G14" s="101"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="101" t="s">
+      <c r="C16" s="114">
+        <f>C12+C14</f>
+        <v>168</v>
+      </c>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="108">
-        <f>C11+C14</f>
-        <v>362.23750991277</v>
-      </c>
-      <c r="D15" s="108">
-        <f>D11+D14</f>
-        <v>473.51308485329</v>
-      </c>
-      <c r="E15" s="108">
-        <f>E11+E14</f>
-        <v>656.99940523394</v>
-      </c>
-      <c r="F15" s="112">
-        <f>SUM(C15:E15)</f>
-        <v>1492.75</v>
-      </c>
-      <c r="G15" s="101"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="106" t="s">
+      <c r="C17" s="114">
+        <f>IF(D11&gt;5000,100*C13,50*C13)</f>
+        <v>50</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="108">
-        <f>C12+C14</f>
-        <v>56.237509912768</v>
-      </c>
-      <c r="D16" s="108">
-        <f>D12+D14</f>
-        <v>73.513084853291</v>
-      </c>
-      <c r="E16" s="108">
-        <f>E12+E14</f>
-        <v>101.99940523394</v>
-      </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="101" t="s">
+      <c r="C18" s="114">
+        <f>C15+C17</f>
+        <v>1118</v>
+      </c>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="108">
-        <f>IF(F11&gt;5000,100*C13,50*C13)</f>
-        <v>12.133227597145</v>
-      </c>
-      <c r="D17" s="108">
-        <f>IF(F11&gt;5000,100*D13,50*D13)</f>
-        <v>15.860428231562</v>
-      </c>
-      <c r="E17" s="108">
-        <f>IF(F11&gt;5000,100*E13,50*E13)</f>
-        <v>22.006344171293</v>
-      </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="108">
-        <f>C15+C17</f>
-        <v>374.37073750991</v>
-      </c>
-      <c r="D18" s="108">
-        <f>D15+D17</f>
-        <v>489.37351308485</v>
-      </c>
-      <c r="E18" s="108">
-        <f>E15+E17</f>
-        <v>679.00574940523</v>
-      </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="108">
+      <c r="C19" s="114">
         <f>C16+C17</f>
-        <v>68.370737509913</v>
-      </c>
-      <c r="D19" s="108">
-        <f>D16+D17</f>
-        <v>89.373513084853</v>
-      </c>
-      <c r="E19" s="108">
-        <f>E16+E17</f>
-        <v>124.00574940523</v>
-      </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-    </row>
-    <row r="26" spans="1:10">
+        <v>218</v>
+      </c>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="103">
+      <c r="C26" s="109">
         <v>0</v>
       </c>
-      <c r="D26" s="103">
+      <c r="D26" s="109">
+        <f>SUM(C26:C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="103">
-        <v>0</v>
-      </c>
-      <c r="F26" s="103">
-        <f>SUM(C26:E26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="C27" s="104">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="110">
         <v>0.0</v>
       </c>
-      <c r="D27" s="104">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="104">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="108">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="114">
         <f>MAX(C19,C18)*C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="108">
-        <f>MAX(D19,D18)*D27</f>
+      <c r="D28" s="114">
+        <f>SUM(C28:C28)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="108">
-        <f>MAX(E19,E18)*E27</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="108">
-        <f>SUM(C28:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="101"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="101" t="s">
+      <c r="E28" s="107"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="108">
+      <c r="C29" s="114">
         <f>0.16*(MAX(C19,C18)+C28)</f>
-        <v>59.899318001586</v>
-      </c>
-      <c r="D29" s="108">
-        <f>0.16*(MAX(D19,D18)+D28)</f>
-        <v>78.299762093577</v>
-      </c>
-      <c r="E29" s="108">
-        <f>0.16*(MAX(E19,E18)+E28)</f>
-        <v>108.64091990484</v>
-      </c>
-      <c r="F29" s="108">
-        <f>SUM(C29:E29)</f>
-        <v>246.84</v>
-      </c>
-      <c r="G29" s="101"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" s="101" t="s">
+        <v>178.88</v>
+      </c>
+      <c r="D29" s="114">
+        <f>SUM(C29:C29)</f>
+        <v>178.88</v>
+      </c>
+      <c r="E29" s="107"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="108">
+      <c r="C30" s="114">
         <f>0.02*(MAX(C19,C18)+C28)</f>
-        <v>7.4874147501983</v>
-      </c>
-      <c r="D30" s="108">
-        <f>0.02*(MAX(D19,D18)+D28)</f>
-        <v>9.7874702616971</v>
-      </c>
-      <c r="E30" s="108">
-        <f>0.02*(MAX(E19,E18)+E28)</f>
-        <v>13.580114988105</v>
-      </c>
-      <c r="F30" s="108">
-        <f>SUM(C30:E30)</f>
-        <v>30.855</v>
-      </c>
-      <c r="G30" s="101"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="B31" s="101" t="s">
+        <v>22.36</v>
+      </c>
+      <c r="D30" s="114">
+        <f>SUM(C30:C30)</f>
+        <v>22.36</v>
+      </c>
+      <c r="E30" s="107"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="114">
+        <f>0.035*(MAX(C18,C19) +C28+C29+C30)</f>
+        <v>46.1734</v>
+      </c>
+      <c r="D31" s="114">
+        <f>SUM(C31:C31)</f>
+        <v>46.1734</v>
+      </c>
+      <c r="E31" s="107"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="114">
+        <f>SUM(C28:C31)</f>
+        <v>247.4134</v>
+      </c>
+      <c r="D32" s="114">
+        <f>SUM(D28:D31)</f>
+        <v>247.4134</v>
+      </c>
+      <c r="E32" s="107"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="108">
-        <f>0.035*(MAX(C18,C19) +C28+C29+C30)</f>
-        <v>15.461511459159</v>
-      </c>
-      <c r="D31" s="108">
-        <f>0.035*(MAX(D18,D19) +D28+D29+D30)</f>
-        <v>20.211126090404</v>
-      </c>
-      <c r="E31" s="108">
-        <f>0.035*(MAX(E18,E19) +E28+E29+E30)</f>
-        <v>28.042937450436</v>
-      </c>
-      <c r="F31" s="108">
-        <f>SUM(C31:E31)</f>
-        <v>63.715575</v>
-      </c>
-      <c r="G31" s="101"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="108">
-        <f>SUM(C28:C31)</f>
-        <v>82.848244210944</v>
-      </c>
-      <c r="D32" s="108">
-        <f>SUM(D28:D31)</f>
-        <v>108.29835844568</v>
-      </c>
-      <c r="E32" s="108">
-        <f>SUM(E28:E31)</f>
-        <v>150.26397234338</v>
-      </c>
-      <c r="F32" s="108">
-        <f>SUM(F28:F31)</f>
-        <v>341.410575</v>
-      </c>
-      <c r="G32" s="101"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="102" t="s">
+      <c r="C40" s="114">
+        <f>C13*D40</f>
+        <v>112</v>
+      </c>
+      <c r="D40" s="107">
+        <f>IF(D7&lt;1, H7*0.4, H7*0.4*D7)</f>
+        <v>112</v>
+      </c>
+      <c r="E40" s="107"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="107"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="B40" s="101" t="s">
+      <c r="C44" s="114">
+        <f>SUM(C15,C40,C32,(C26))</f>
+        <v>1427.4134</v>
+      </c>
+      <c r="D44" s="114">
+        <f>SUM(C44:C44)</f>
+        <v>1427.4134</v>
+      </c>
+      <c r="E44" s="107"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="108">
-        <f>C13*F40</f>
-        <v>37.491673275178</v>
-      </c>
-      <c r="D40" s="108">
-        <f>D13*F40</f>
-        <v>49.008723235527</v>
-      </c>
-      <c r="E40" s="108">
-        <f>E13*F40</f>
-        <v>67.999603489294</v>
-      </c>
-      <c r="F40" s="101">
-        <f>IF(F7&lt;1, J7*0.4, J7*0.4*F7)</f>
-        <v>154.5</v>
-      </c>
-      <c r="G40" s="101"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="B43" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="101"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="B44" s="101" t="s">
+      <c r="C45" s="107">
+        <v>1500.0</v>
+      </c>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="108">
-        <f>SUM(C15,C40,C32,(C26))</f>
-        <v>482.57742739889</v>
-      </c>
-      <c r="D44" s="108">
-        <f>SUM(D15,D40,D32,(D26))</f>
-        <v>630.8201665345</v>
-      </c>
-      <c r="E44" s="108">
-        <f>SUM(E15,E40,E32,(E26))</f>
-        <v>875.26298106661</v>
-      </c>
-      <c r="F44" s="108">
-        <f>SUM(C44:E44)</f>
-        <v>1988.660575</v>
-      </c>
-      <c r="G44" s="101"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="B45" s="101" t="s">
+      <c r="C46" s="114">
+        <f>SUM(C44/C45)</f>
+        <v>0.95160893333333</v>
+      </c>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="101">
-        <v>6000.0</v>
-      </c>
-      <c r="D45" s="101">
-        <v>4000.0</v>
-      </c>
-      <c r="E45" s="101">
-        <v>500.0</v>
-      </c>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="B46" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="108">
-        <f>SUM(C44/C45)</f>
-        <v>0.080429571233148</v>
-      </c>
-      <c r="D46" s="108">
-        <f>SUM(D44/D45)</f>
-        <v>0.15770504163362</v>
-      </c>
-      <c r="E46" s="108">
-        <f>SUM(E44/E45)</f>
-        <v>1.7505259621332</v>
-      </c>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="B47" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="113">
+      <c r="C47" s="119">
         <f>C46*3.7</f>
-        <v>0.29758941356265</v>
-      </c>
-      <c r="D47" s="113">
-        <f>D46*3.7</f>
-        <v>0.58350865404441</v>
-      </c>
-      <c r="E47" s="113">
-        <f>E46*3.7</f>
-        <v>6.4769460598929</v>
-      </c>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
+        <v>3.5209530533333</v>
+      </c>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
     </row>
   </sheetData>
   <mergeCells>
